--- a/ILVIYV_03.17/ilviyvgyak06.xlsx
+++ b/ILVIYV_03.17/ilviyvgyak06.xlsx
@@ -8,17 +8,26 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\II. félév\OS\Git\Repository\ILVIYVOsGyak\ILVIYV_03.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{608859EF-3ACF-4602-BC83-8913609588EA}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AD7FE-5810-4763-8160-4DA5AC90ABFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0640F587-6A39-49EF-9867-042B407191DA}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
@@ -489,16 +498,7 @@
     <xf numFmtId="0" fontId="0" fillId="11" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="8" borderId="8" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
@@ -513,6 +513,15 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -928,8 +937,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4DF8C2A5-5BAB-440B-B9B3-41F53EF5DC89}">
   <dimension ref="A1:BW57"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScale="120" workbookViewId="0">
-      <selection activeCell="A23" sqref="A23"/>
+    <sheetView tabSelected="1" topLeftCell="A42" zoomScale="161" workbookViewId="0">
+      <selection activeCell="B56" sqref="B56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -939,81 +948,81 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A1" s="25" t="s">
+      <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="25"/>
-      <c r="C1" s="25"/>
-      <c r="D1" s="25"/>
-      <c r="E1" s="25"/>
-      <c r="F1" s="25"/>
-      <c r="G1" s="25"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="25"/>
-      <c r="B2" s="25"/>
-      <c r="C2" s="25"/>
-      <c r="D2" s="25"/>
-      <c r="E2" s="25"/>
-      <c r="F2" s="25"/>
-      <c r="G2" s="25"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="27">
+      <c r="A3" s="41">
         <v>44272</v>
       </c>
-      <c r="B3" s="24"/>
-      <c r="C3" s="24"/>
-      <c r="D3" s="24"/>
-      <c r="E3" s="24"/>
-      <c r="F3" s="24"/>
-      <c r="G3" s="24"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A4" s="26"/>
-      <c r="B4" s="26"/>
-      <c r="C4" s="26"/>
-      <c r="D4" s="26"/>
-      <c r="E4" s="24" t="s">
+      <c r="A4" s="24"/>
+      <c r="B4" s="24"/>
+      <c r="C4" s="24"/>
+      <c r="D4" s="24"/>
+      <c r="E4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="24"/>
-      <c r="G4" s="24"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="E5" s="24" t="s">
+      <c r="E5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="24"/>
-      <c r="G5" s="24"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="E6" s="24" t="s">
+      <c r="E6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="24"/>
-      <c r="G6" s="24"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="9" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="31" t="s">
+      <c r="A10" s="28" t="s">
         <v>9</v>
       </c>
-      <c r="B10" s="28" t="s">
+      <c r="B10" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C10" s="28" t="s">
+      <c r="C10" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D10" s="28" t="s">
+      <c r="D10" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E10" s="29" t="s">
+      <c r="E10" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="11" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A11" s="32" t="s">
+      <c r="A11" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B11">
@@ -1025,7 +1034,7 @@
       <c r="D11">
         <v>12</v>
       </c>
-      <c r="E11" s="30">
+      <c r="E11" s="27">
         <v>20</v>
       </c>
       <c r="G11" s="7" t="s">
@@ -1091,7 +1100,7 @@
       <c r="BM11" s="11"/>
     </row>
     <row r="12" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A12" s="32" t="s">
+      <c r="A12" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B12">
@@ -1103,7 +1112,7 @@
       <c r="D12">
         <v>26</v>
       </c>
-      <c r="E12" s="30">
+      <c r="E12" s="27">
         <v>10</v>
       </c>
       <c r="G12" s="12" t="s">
@@ -1169,7 +1178,7 @@
       <c r="BM12" s="14"/>
     </row>
     <row r="13" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A13" s="32" t="s">
+      <c r="A13" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B13">
@@ -1181,7 +1190,7 @@
       <c r="D13">
         <v>22</v>
       </c>
-      <c r="E13" s="30">
+      <c r="E13" s="27">
         <v>48</v>
       </c>
       <c r="G13" s="12" t="s">
@@ -1247,7 +1256,7 @@
       <c r="BM13" s="14"/>
     </row>
     <row r="14" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="32" t="s">
+      <c r="A14" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B14">
@@ -1260,7 +1269,7 @@
       <c r="D14">
         <v>48</v>
       </c>
-      <c r="E14" s="30">
+      <c r="E14" s="27">
         <v>58</v>
       </c>
       <c r="G14" s="16" t="s">
@@ -1326,7 +1335,7 @@
       <c r="BM14" s="23"/>
     </row>
     <row r="15" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="32" t="s">
+      <c r="A15" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B15">
@@ -1338,32 +1347,32 @@
       <c r="D15" s="17">
         <v>10</v>
       </c>
-      <c r="E15" s="35">
+      <c r="E15" s="32">
         <v>28</v>
       </c>
     </row>
     <row r="16" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="33" t="s">
+      <c r="A16" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B16" s="34">
+      <c r="B16" s="31">
         <f>SUM(B15:E15)/4</f>
         <v>11.25</v>
       </c>
-      <c r="C16" s="37"/>
+      <c r="C16" s="34"/>
     </row>
     <row r="17" spans="1:65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="B17" s="36"/>
+      <c r="B17" s="33"/>
     </row>
     <row r="23" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="34"/>
-      <c r="B23" s="34"/>
-      <c r="C23" s="34"/>
-      <c r="D23" s="34"/>
-      <c r="E23" s="34"/>
+      <c r="A23" s="31"/>
+      <c r="B23" s="31"/>
+      <c r="C23" s="31"/>
+      <c r="D23" s="31"/>
+      <c r="E23" s="31"/>
     </row>
     <row r="24" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="31" t="s">
+      <c r="A24" s="28" t="s">
         <v>11</v>
       </c>
       <c r="B24" t="s">
@@ -1375,12 +1384,12 @@
       <c r="D24" t="s">
         <v>2</v>
       </c>
-      <c r="E24" s="29" t="s">
+      <c r="E24" s="26" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="25" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A25" s="32" t="s">
+      <c r="A25" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B25">
@@ -1395,7 +1404,7 @@
       <c r="E25">
         <v>20</v>
       </c>
-      <c r="F25" s="38"/>
+      <c r="F25" s="35"/>
       <c r="G25" s="7" t="s">
         <v>0</v>
       </c>
@@ -1459,7 +1468,7 @@
       <c r="BM25" s="11"/>
     </row>
     <row r="26" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A26" s="32" t="s">
+      <c r="A26" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B26">
@@ -1471,7 +1480,7 @@
       <c r="D26">
         <v>26</v>
       </c>
-      <c r="E26" s="30">
+      <c r="E26" s="27">
         <v>10</v>
       </c>
       <c r="G26" s="12" t="s">
@@ -1537,7 +1546,7 @@
       <c r="BM26" s="14"/>
     </row>
     <row r="27" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A27" s="32" t="s">
+      <c r="A27" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B27">
@@ -1549,7 +1558,7 @@
       <c r="D27">
         <v>22</v>
       </c>
-      <c r="E27" s="30">
+      <c r="E27" s="27">
         <v>48</v>
       </c>
       <c r="G27" s="12" t="s">
@@ -1615,7 +1624,7 @@
       <c r="BM27" s="14"/>
     </row>
     <row r="28" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="32" t="s">
+      <c r="A28" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B28">
@@ -1628,7 +1637,7 @@
       <c r="D28">
         <v>48</v>
       </c>
-      <c r="E28" s="30">
+      <c r="E28" s="27">
         <v>58</v>
       </c>
       <c r="G28" s="16" t="s">
@@ -1694,45 +1703,45 @@
       <c r="BM28" s="23"/>
     </row>
     <row r="29" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="32" t="s">
+      <c r="A29" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B29">
         <v>0</v>
       </c>
-      <c r="C29" s="34">
+      <c r="C29" s="31">
         <v>7</v>
       </c>
-      <c r="D29" s="34">
+      <c r="D29" s="31">
         <v>10</v>
       </c>
       <c r="E29">
         <v>28</v>
       </c>
-      <c r="F29" s="32"/>
+      <c r="F29" s="29"/>
     </row>
     <row r="30" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="33" t="s">
+      <c r="A30" s="30" t="s">
         <v>10</v>
       </c>
       <c r="B30">
         <f>SUM(B29:E29)/4</f>
         <v>11.25</v>
       </c>
-      <c r="C30" s="31"/>
-      <c r="E30" s="28"/>
+      <c r="C30" s="28"/>
+      <c r="E30" s="25"/>
     </row>
     <row r="31" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="39"/>
-      <c r="B31" s="28"/>
-      <c r="C31" s="34"/>
-      <c r="D31" s="34"/>
+      <c r="A31" s="36"/>
+      <c r="B31" s="25"/>
+      <c r="C31" s="31"/>
+      <c r="D31" s="31"/>
     </row>
     <row r="32" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
+      <c r="A32" s="28" t="s">
         <v>12</v>
       </c>
-      <c r="B32" s="28" t="s">
+      <c r="B32" s="25" t="s">
         <v>0</v>
       </c>
       <c r="C32" t="s">
@@ -1741,13 +1750,13 @@
       <c r="D32" t="s">
         <v>2</v>
       </c>
-      <c r="E32" s="29" t="s">
+      <c r="E32" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F32" s="32"/>
+      <c r="F32" s="29"/>
     </row>
     <row r="33" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A33" s="32" t="s">
+      <c r="A33" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B33" t="s">
@@ -1759,7 +1768,7 @@
       <c r="D33" t="s">
         <v>19</v>
       </c>
-      <c r="E33" s="30">
+      <c r="E33" s="27">
         <v>20</v>
       </c>
       <c r="G33" s="7" t="s">
@@ -1825,7 +1834,7 @@
       <c r="BM33" s="11"/>
     </row>
     <row r="34" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A34" s="32" t="s">
+      <c r="A34" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B34" t="s">
@@ -1837,7 +1846,7 @@
       <c r="D34" t="s">
         <v>18</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="27">
         <v>10</v>
       </c>
       <c r="G34" s="12" t="s">
@@ -1903,7 +1912,7 @@
       <c r="BM34" s="14"/>
     </row>
     <row r="35" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A35" s="32" t="s">
+      <c r="A35" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B35" t="s">
@@ -1915,7 +1924,7 @@
       <c r="D35">
         <v>22.42</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="27">
         <v>32</v>
       </c>
       <c r="G35" s="12" t="s">
@@ -1981,7 +1990,7 @@
       <c r="BM35" s="15"/>
     </row>
     <row r="36" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="32" t="s">
+      <c r="A36" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B36" t="s">
@@ -1993,7 +2002,7 @@
       <c r="D36" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="27">
         <v>42</v>
       </c>
       <c r="G36" s="16" t="s">
@@ -2059,32 +2068,32 @@
       <c r="BM36" s="20"/>
     </row>
     <row r="37" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
+      <c r="A37" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B37" t="s">
         <v>20</v>
       </c>
-      <c r="C37" s="34">
+      <c r="C37" s="31">
         <v>2</v>
       </c>
-      <c r="D37" s="34" t="s">
+      <c r="D37" s="31" t="s">
         <v>21</v>
       </c>
-      <c r="E37" s="34">
+      <c r="E37" s="31">
         <v>12</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="29"/>
     </row>
     <row r="38" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
+      <c r="A38" s="30" t="s">
         <v>10</v>
       </c>
-      <c r="B38" s="34">
+      <c r="B38" s="31">
         <f>(0+7+2+10+10+12)/6</f>
         <v>6.833333333333333</v>
       </c>
-      <c r="C38" s="31"/>
+      <c r="C38" s="28"/>
     </row>
     <row r="39" spans="1:65" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
     <row r="41" spans="1:65" x14ac:dyDescent="0.25">
@@ -2094,25 +2103,25 @@
     </row>
     <row r="47" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="48" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A48" s="31" t="s">
+      <c r="A48" s="28" t="s">
         <v>24</v>
       </c>
-      <c r="B48" s="28" t="s">
+      <c r="B48" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C48" s="28" t="s">
+      <c r="C48" s="25" t="s">
         <v>1</v>
       </c>
-      <c r="D48" s="28" t="s">
+      <c r="D48" s="25" t="s">
         <v>2</v>
       </c>
-      <c r="E48" s="29" t="s">
+      <c r="E48" s="26" t="s">
         <v>3</v>
       </c>
-      <c r="F48" s="32"/>
+      <c r="F48" s="29"/>
     </row>
     <row r="49" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A49" s="32" t="s">
+      <c r="A49" s="29" t="s">
         <v>4</v>
       </c>
       <c r="B49" t="s">
@@ -2124,7 +2133,7 @@
       <c r="D49" t="s">
         <v>27</v>
       </c>
-      <c r="E49" s="30">
+      <c r="E49" s="27">
         <v>20</v>
       </c>
       <c r="G49" s="7" t="s">
@@ -2200,7 +2209,7 @@
       <c r="BW49" s="11"/>
     </row>
     <row r="50" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A50" s="32" t="s">
+      <c r="A50" s="29" t="s">
         <v>5</v>
       </c>
       <c r="B50" t="s">
@@ -2212,7 +2221,7 @@
       <c r="D50" t="s">
         <v>28</v>
       </c>
-      <c r="E50" s="30">
+      <c r="E50" s="27">
         <v>10</v>
       </c>
       <c r="G50" s="12" t="s">
@@ -2288,7 +2297,7 @@
       <c r="BW50" s="14"/>
     </row>
     <row r="51" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A51" s="32" t="s">
+      <c r="A51" s="29" t="s">
         <v>6</v>
       </c>
       <c r="B51" t="s">
@@ -2300,7 +2309,7 @@
       <c r="D51" t="s">
         <v>29</v>
       </c>
-      <c r="E51" s="30">
+      <c r="E51" s="27">
         <v>32</v>
       </c>
       <c r="G51" s="12" t="s">
@@ -2376,7 +2385,7 @@
       <c r="BW51" s="15"/>
     </row>
     <row r="52" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A52" s="32" t="s">
+      <c r="A52" s="29" t="s">
         <v>7</v>
       </c>
       <c r="B52" t="s">
@@ -2391,7 +2400,7 @@
       <c r="E52">
         <v>42</v>
       </c>
-      <c r="F52" s="38"/>
+      <c r="F52" s="35"/>
       <c r="G52" s="16" t="s">
         <v>3</v>
       </c>
@@ -2465,51 +2474,52 @@
       <c r="BW52" s="20"/>
     </row>
     <row r="53" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A53" s="32" t="s">
+      <c r="A53" s="29" t="s">
         <v>8</v>
       </c>
       <c r="B53" t="s">
         <v>26</v>
       </c>
-      <c r="C53" s="34">
+      <c r="C53" s="31">
         <v>3</v>
       </c>
-      <c r="D53" s="34" t="s">
+      <c r="D53" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="41">
+      <c r="E53" s="38">
         <v>12</v>
       </c>
     </row>
     <row r="54" spans="1:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25">
-      <c r="A54" s="32" t="s">
+      <c r="A54" s="29" t="s">
         <v>10</v>
       </c>
       <c r="B54">
         <f>(0+8+3+11+10+12)/6</f>
         <v>7.333333333333333</v>
       </c>
-      <c r="C54" s="32"/>
+      <c r="C54" s="29"/>
     </row>
     <row r="55" spans="1:75" x14ac:dyDescent="0.25">
-      <c r="A55" s="32" t="s">
+      <c r="A55" s="29" t="s">
         <v>32</v>
       </c>
       <c r="B55">
         <f>(14+8+36+10+8+3+11+10+12)/4</f>
         <v>28</v>
       </c>
-      <c r="C55" s="32"/>
+      <c r="C55" s="29"/>
       <c r="G55" s="6"/>
     </row>
     <row r="56" spans="1:75" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A56" s="33" t="s">
+      <c r="A56" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="40">
-        <v>0.93</v>
-      </c>
-      <c r="C56" s="32"/>
+      <c r="B56" s="37">
+        <f>(14+8+36+10)/(14+8+36+10+0.6)</f>
+        <v>0.99125364431486884</v>
+      </c>
+      <c r="C56" s="29"/>
     </row>
     <row r="57" spans="1:75" ht="15.75" thickTop="1" x14ac:dyDescent="0.25"/>
   </sheetData>

--- a/ILVIYV_03.17/ilviyvgyak06.xlsx
+++ b/ILVIYV_03.17/ilviyvgyak06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\II. félév\OS\Git\Repository\ILVIYVOsGyak\ILVIYV_03.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F8AD7FE-5810-4763-8160-4DA5AC90ABFE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18C37B-DA0F-4291-9C9E-E2068CCE2849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0640F587-6A39-49EF-9867-042B407191DA}"/>
   </bookViews>
@@ -511,7 +511,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="18" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -522,6 +521,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:BW57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="161" workbookViewId="0">
-      <selection activeCell="B56" sqref="B56"/>
+      <selection activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,60 +948,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A1" s="39" t="s">
+      <c r="A1" s="38" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="39"/>
-      <c r="C1" s="39"/>
-      <c r="D1" s="39"/>
-      <c r="E1" s="39"/>
-      <c r="F1" s="39"/>
-      <c r="G1" s="39"/>
+      <c r="B1" s="38"/>
+      <c r="C1" s="38"/>
+      <c r="D1" s="38"/>
+      <c r="E1" s="38"/>
+      <c r="F1" s="38"/>
+      <c r="G1" s="38"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="39"/>
-      <c r="B2" s="39"/>
-      <c r="C2" s="39"/>
-      <c r="D2" s="39"/>
-      <c r="E2" s="39"/>
-      <c r="F2" s="39"/>
-      <c r="G2" s="39"/>
+      <c r="A2" s="38"/>
+      <c r="B2" s="38"/>
+      <c r="C2" s="38"/>
+      <c r="D2" s="38"/>
+      <c r="E2" s="38"/>
+      <c r="F2" s="38"/>
+      <c r="G2" s="38"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="41">
+      <c r="A3" s="40">
         <v>44272</v>
       </c>
-      <c r="B3" s="40"/>
-      <c r="C3" s="40"/>
-      <c r="D3" s="40"/>
-      <c r="E3" s="40"/>
-      <c r="F3" s="40"/>
-      <c r="G3" s="40"/>
+      <c r="B3" s="39"/>
+      <c r="C3" s="39"/>
+      <c r="D3" s="39"/>
+      <c r="E3" s="39"/>
+      <c r="F3" s="39"/>
+      <c r="G3" s="39"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="40" t="s">
+      <c r="E4" s="39" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="40"/>
-      <c r="G4" s="40"/>
+      <c r="F4" s="39"/>
+      <c r="G4" s="39"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="E5" s="40" t="s">
+      <c r="E5" s="39" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="40"/>
-      <c r="G5" s="40"/>
+      <c r="F5" s="39"/>
+      <c r="G5" s="39"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="E6" s="40" t="s">
+      <c r="E6" s="39" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="40"/>
-      <c r="G6" s="40"/>
+      <c r="F6" s="39"/>
+      <c r="G6" s="39"/>
     </row>
     <row r="9" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2486,7 +2486,7 @@
       <c r="D53" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="E53" s="38">
+      <c r="E53" s="37">
         <v>12</v>
       </c>
     </row>
@@ -2515,9 +2515,9 @@
       <c r="A56" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="37">
-        <f>(14+8+36+10)/(14+8+36+10+0.6)</f>
-        <v>0.99125364431486884</v>
+      <c r="B56" s="41">
+        <f>(14+8+36+10)/(14+8+36+10+0.9)</f>
+        <v>0.98693759071117548</v>
       </c>
       <c r="C56" s="29"/>
     </row>

--- a/ILVIYV_03.17/ilviyvgyak06.xlsx
+++ b/ILVIYV_03.17/ilviyvgyak06.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Uni\II. félév\OS\Git\Repository\ILVIYVOsGyak\ILVIYV_03.17\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF18C37B-DA0F-4291-9C9E-E2068CCE2849}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8D53947-F659-4179-B406-5A724E494071}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" xr2:uid="{0640F587-6A39-49EF-9867-042B407191DA}"/>
   </bookViews>
@@ -512,6 +512,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="19" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="20" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="21" xfId="0" applyBorder="1"/>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -521,7 +522,6 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="10" fontId="0" fillId="0" borderId="21" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normál" xfId="0" builtinId="0"/>
@@ -938,7 +938,7 @@
   <dimension ref="A1:BW57"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A42" zoomScale="161" workbookViewId="0">
-      <selection activeCell="C56" sqref="C56"/>
+      <selection activeCell="B55" sqref="B55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -948,60 +948,60 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A1" s="38" t="s">
+      <c r="A1" s="39" t="s">
         <v>34</v>
       </c>
-      <c r="B1" s="38"/>
-      <c r="C1" s="38"/>
-      <c r="D1" s="38"/>
-      <c r="E1" s="38"/>
-      <c r="F1" s="38"/>
-      <c r="G1" s="38"/>
+      <c r="B1" s="39"/>
+      <c r="C1" s="39"/>
+      <c r="D1" s="39"/>
+      <c r="E1" s="39"/>
+      <c r="F1" s="39"/>
+      <c r="G1" s="39"/>
     </row>
     <row r="2" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A2" s="38"/>
-      <c r="B2" s="38"/>
-      <c r="C2" s="38"/>
-      <c r="D2" s="38"/>
-      <c r="E2" s="38"/>
-      <c r="F2" s="38"/>
-      <c r="G2" s="38"/>
+      <c r="A2" s="39"/>
+      <c r="B2" s="39"/>
+      <c r="C2" s="39"/>
+      <c r="D2" s="39"/>
+      <c r="E2" s="39"/>
+      <c r="F2" s="39"/>
+      <c r="G2" s="39"/>
     </row>
     <row r="3" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="A3" s="40">
+      <c r="A3" s="41">
         <v>44272</v>
       </c>
-      <c r="B3" s="39"/>
-      <c r="C3" s="39"/>
-      <c r="D3" s="39"/>
-      <c r="E3" s="39"/>
-      <c r="F3" s="39"/>
-      <c r="G3" s="39"/>
+      <c r="B3" s="40"/>
+      <c r="C3" s="40"/>
+      <c r="D3" s="40"/>
+      <c r="E3" s="40"/>
+      <c r="F3" s="40"/>
+      <c r="G3" s="40"/>
     </row>
     <row r="4" spans="1:65" x14ac:dyDescent="0.25">
       <c r="A4" s="24"/>
       <c r="B4" s="24"/>
       <c r="C4" s="24"/>
       <c r="D4" s="24"/>
-      <c r="E4" s="39" t="s">
+      <c r="E4" s="40" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="39"/>
-      <c r="G4" s="39"/>
+      <c r="F4" s="40"/>
+      <c r="G4" s="40"/>
     </row>
     <row r="5" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="E5" s="39" t="s">
+      <c r="E5" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="F5" s="39"/>
-      <c r="G5" s="39"/>
+      <c r="F5" s="40"/>
+      <c r="G5" s="40"/>
     </row>
     <row r="6" spans="1:65" x14ac:dyDescent="0.25">
-      <c r="E6" s="39" t="s">
+      <c r="E6" s="40" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="39"/>
-      <c r="G6" s="39"/>
+      <c r="F6" s="40"/>
+      <c r="G6" s="40"/>
     </row>
     <row r="9" spans="1:65" ht="15.75" thickBot="1" x14ac:dyDescent="0.3"/>
     <row r="10" spans="1:65" ht="16.5" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
@@ -2495,8 +2495,8 @@
         <v>10</v>
       </c>
       <c r="B54">
-        <f>(0+8+3+11+10+12)/6</f>
-        <v>7.333333333333333</v>
+        <f>(0+8+3+11+10+12)/4</f>
+        <v>11</v>
       </c>
       <c r="C54" s="29"/>
     </row>
@@ -2515,7 +2515,7 @@
       <c r="A56" s="30" t="s">
         <v>33</v>
       </c>
-      <c r="B56" s="41">
+      <c r="B56" s="38">
         <f>(14+8+36+10)/(14+8+36+10+0.9)</f>
         <v>0.98693759071117548</v>
       </c>
